--- a/results/finslides/iterative_significance_tests_query.xlsx
+++ b/results/finslides/iterative_significance_tests_query.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4.872545695010765e-188</v>
+        <v>1.802408070868481e-270</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -516,7 +516,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TEXT-MULTI</t>
+          <t>TEXT-SINGLE</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.214333208483132e-118</v>
+        <v>2.864596717576752e-102</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.365750991043966</v>
+        <v>1.128400533753379</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4.872545695010765e-188</v>
+        <v>1.802408070868481e-270</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -568,7 +568,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MULTIMODAL-MULTI</t>
+          <t>TEXT-MULTI</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -577,17 +577,17 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.1042560567489844</v>
+        <v>7.954275431561253e-119</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04559989168917115</v>
+        <v>1.366739299692244</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>negligible</t>
+          <t>large</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -602,7 +602,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MRR@5</t>
+          <t>nDCG@5</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.140734928231303e-188</v>
+        <v>1.802408070868481e-270</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -620,7 +620,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>TEXT-MULTI</t>
+          <t>MULTIMODAL-MULTI</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -629,17 +629,17 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>6.566491817543458e-110</v>
+        <v>0.1022811849357135</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.28048468880037</v>
+        <v>0.04556914239457834</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>negligible</t>
         </is>
       </c>
       <c r="K4" t="n">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4.140734928231303e-188</v>
+        <v>3.171533281175402e-270</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MULTIMODAL-MULTI</t>
+          <t>TEXT-SINGLE</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -681,17 +681,17 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.1512322870811835</v>
+        <v>5.512084240485744e-95</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04590054922279803</v>
+        <v>1.089396171777414</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>negligible</t>
+          <t>large</t>
         </is>
       </c>
       <c r="K5" t="n">
@@ -706,7 +706,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Precision@5</t>
+          <t>MRR@5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4.219846791298293e-214</v>
+        <v>3.171533281175402e-270</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -733,13 +733,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.627773047725395e-125</v>
+        <v>3.602560199274057e-110</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1.405449107545604</v>
+        <v>1.28004918234782</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Precision@5</t>
+          <t>MRR@5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4.219846791298293e-214</v>
+        <v>3.171533281175402e-270</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -785,13 +785,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.4753839921917616</v>
+        <v>0.1594326485928979</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02772499985678501</v>
+        <v>0.04501036268665465</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Recall@5</t>
+          <t>Precision@5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4.219846791298293e-214</v>
+        <v>2.291682452644195e-276</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>TEXT-MULTI</t>
+          <t>TEXT-SINGLE</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -837,13 +837,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.927610210183487e-125</v>
+        <v>1.749480253529013e-95</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1.405735295678564</v>
+        <v>1.037074971582569</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Recall@5</t>
+          <t>Precision@5</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4.219846791298293e-214</v>
+        <v>2.291682452644195e-276</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MULTIMODAL-MULTI</t>
+          <t>TEXT-MULTI</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -889,17 +889,17 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.426864474433302</v>
+        <v>2.806236082402995e-125</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02961275578188546</v>
+        <v>1.409549007125038</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>negligible</t>
+          <t>large</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -914,48 +914,48 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>nDCG@5</t>
+          <t>Precision@5</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Wilcoxon Signed-Rank Test</t>
+          <t>Friedman Test</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.480554471386232e-110</v>
+        <v>2.291682452644195e-276</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>MULTIMODAL-SINGLE</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>MULTIMODAL-MULTI</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>TEXT-MULTI</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>Wilcoxon Signed-Rank Test</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.480554471386232e-110</v>
+        <v>0.4262894028734268</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.308884284955043</v>
+        <v>0.03086741054121164</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>negligible</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -966,25 +966,25 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MRR@5</t>
+          <t>Recall@5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Wilcoxon Signed-Rank Test</t>
+          <t>Friedman Test</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.221381130116508e-102</v>
+        <v>2.291682452644195e-276</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MULTIMODAL-MULTI</t>
+          <t>MULTIMODAL-SINGLE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>TEXT-MULTI</t>
+          <t>TEXT-SINGLE</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -993,13 +993,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.221381130116508e-102</v>
+        <v>4.700413213345742e-95</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>1.220445661766396</v>
+        <v>1.039056198749239</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1018,20 +1018,20 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Precision@5</t>
+          <t>Recall@5</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Wilcoxon Signed-Rank Test</t>
+          <t>Friedman Test</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5.84311852189651e-120</v>
+        <v>2.291682452644195e-276</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MULTIMODAL-MULTI</t>
+          <t>MULTIMODAL-SINGLE</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1045,13 +1045,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5.84311852189651e-120</v>
+        <v>1.168650221822957e-125</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>1.369252996489403</v>
+        <v>1.409848465774005</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1075,45 +1075,669 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Wilcoxon Signed-Rank Test</t>
+          <t>Friedman Test</t>
         </is>
       </c>
       <c r="C13" t="n">
+        <v>2.291682452644195e-276</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>MULTIMODAL-SINGLE</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MULTIMODAL-MULTI</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0.3805422990394243</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.03279686146268551</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>negligible</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>query</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>nDCG@5</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Friedman Test</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1.518885758934122e-178</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>MULTIMODAL-MULTI</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>TEXT-SINGLE</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>5.252103147016187e-93</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.074246174025213</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>query</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>nDCG@5</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Friedman Test</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1.518885758934122e-178</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>MULTIMODAL-MULTI</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>TEXT-MULTI</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.480554471386232e-110</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.308884284955043</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>query</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MRR@5</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Friedman Test</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2.375426726161425e-178</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>MULTIMODAL-MULTI</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>TEXT-SINGLE</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>9.658792513183014e-87</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.032968702580599</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>query</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MRR@5</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Friedman Test</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2.375426726161425e-178</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>MULTIMODAL-MULTI</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>TEXT-MULTI</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1.221381130116508e-102</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.220445661766396</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>query</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Precision@5</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Friedman Test</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2.160581168543348e-178</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>MULTIMODAL-MULTI</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>TEXT-SINGLE</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>2.065407643290509e-88</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.002873097402454</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>2</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>query</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Precision@5</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Friedman Test</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2.160581168543348e-178</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>MULTIMODAL-MULTI</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>TEXT-MULTI</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>5.84311852189651e-120</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.369252996489403</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>query</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Recall@5</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Friedman Test</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2.160581168543348e-178</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>MULTIMODAL-MULTI</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>TEXT-SINGLE</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>8.964873799843002e-88</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.003357782486992</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>2</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>query</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Recall@5</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Friedman Test</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2.160581168543348e-178</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>MULTIMODAL-MULTI</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>TEXT-MULTI</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
         <v>4.40148521046095e-120</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>MULTIMODAL-MULTI</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.367949395199467</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>2</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>query</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>nDCG@5</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1.241321256650035e-12</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>TEXT-SINGLE</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>TEXT-MULTI</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Wilcoxon Signed-Rank Test</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>4.40148521046095e-120</v>
-      </c>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.367949395199467</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>large</t>
-        </is>
-      </c>
-      <c r="K13" t="n">
-        <v>2</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1.241321256650035e-12</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.2041350372818038</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>3</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>query</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MRR@5</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1.315225336237235e-07</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>TEXT-SINGLE</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>TEXT-MULTI</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1.315225336237235e-07</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.1701701157782068</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>negligible</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>3</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>query</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Precision@5</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1.219352595559322e-19</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>TEXT-SINGLE</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>TEXT-MULTI</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1.219352595559322e-19</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.2722444757378483</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>3</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>query</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Recall@5</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2.787208681629238e-19</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>TEXT-SINGLE</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>TEXT-MULTI</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>2.787208681629238e-19</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.2704362337419351</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>3</v>
+      </c>
+      <c r="L25" t="inlineStr">
         <is>
           <t>query</t>
         </is>
